--- a/PageObjectExtended/src/test/resources/testData/Suite.xlsx
+++ b/PageObjectExtended/src/test/resources/testData/Suite.xlsx
@@ -25,7 +25,7 @@
     <t>master</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Y</t>
   </si>
 </sst>
 </file>
